--- a/recipients.xlsx
+++ b/recipients.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cristiano.ADS\Desktop\python-projects\emailsender\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cristiano.ADS\Desktop\python-projects\mailsender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CA4A5A-5635-4697-9258-D31038EC8B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6858F3-4675-4D09-9766-A60026042CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1275" yWindow="2070" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -31,54 +31,47 @@
     <t>email</t>
   </si>
   <si>
-    <t>Cristiano</t>
-  </si>
-  <si>
-    <t>cristianosoaresalves@gmail.com</t>
-  </si>
-  <si>
     <t>assunto</t>
   </si>
   <si>
     <t>Assunto A</t>
   </si>
   <si>
-    <t>Victor</t>
-  </si>
-  <si>
-    <t>victorsantos2035@gmail.com</t>
-  </si>
-  <si>
     <t>Assunto B</t>
   </si>
   <si>
-    <t>Cristiano Ipead</t>
-  </si>
-  <si>
-    <t>cristiano@ipead.face.ufmg.br</t>
-  </si>
-  <si>
     <t>Assunto C</t>
+  </si>
+  <si>
+    <t>Pessoa A</t>
+  </si>
+  <si>
+    <t>Pessoa B</t>
+  </si>
+  <si>
+    <t>Pessoa C</t>
+  </si>
+  <si>
+    <t>emaila@email.com</t>
+  </si>
+  <si>
+    <t>emailb@email.com</t>
+  </si>
+  <si>
+    <t>emailc@email.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -115,17 +108,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -435,7 +424,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,46 +442,48 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{4494E4BE-310B-4144-8D1F-516189BE6CA5}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{5E83AB4D-4866-4E2C-AD94-00C6E2370261}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{FE74BAD8-70AF-4E66-B5B8-CD567DD0BDEB}"/>
+    <hyperlink ref="B3:B4" r:id="rId2" display="emaila@email.com" xr:uid="{E880EAA3-63D5-4F2B-A92C-EB1A097D7CBC}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{B6DCD0AA-3DFC-4208-9E94-7246F01DF2F0}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{3E36687B-30B6-4C39-8D72-36A7F9F5E94D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
